--- a/Docs/L_03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/L_03/Lab03_WBT_TCs_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241C1A20-034A-47AF-A011-B4F4D2F5F8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0620F41-682F-4911-AB47-4C05560D85F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2907,7 +2907,7 @@
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
